--- a/src/test/java/com/Guru/testData/LoginData.xlsx
+++ b/src/test/java/com/Guru/testData/LoginData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CC18C2-E73C-4A68-A484-E43CA857BF82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010B3DCA-77FE-44B3-9CF1-AA406E46A646}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Passowrd</t>
-  </si>
-  <si>
     <t>mngr264437</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>nUpU2v</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -529,39 +529,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/Guru/testData/LoginData.xlsx
+++ b/src/test/java/com/Guru/testData/LoginData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010B3DCA-77FE-44B3-9CF1-AA406E46A646}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18261550-2E45-4126-950C-7FA67370CB29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="33" style="3"/>
+    <col min="1" max="1" width="27.26953125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="33" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.6">
